--- a/gap_result_2_N.xlsx
+++ b/gap_result_2_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004957528122245566</v>
+        <v>-0.0001658701565549897</v>
       </c>
       <c r="D2">
-        <v>0.9520408032801968</v>
+        <v>0.9841478695771412</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003298090219316516</v>
+        <v>-0.0003293476869256861</v>
       </c>
       <c r="D3">
-        <v>0.9888002883165343</v>
+        <v>0.9893563770901038</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002557323526115544</v>
+        <v>0.001485312452776666</v>
       </c>
       <c r="D4">
-        <v>0.8641917641765442</v>
+        <v>0.9227580399073519</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003310703472175984</v>
+        <v>-0.0003474025726281464</v>
       </c>
       <c r="D5">
-        <v>0.9819959374839393</v>
+        <v>0.9814113648820749</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006540481182643804</v>
+        <v>0.00168478525018243</v>
       </c>
       <c r="D6">
-        <v>0.5850698877758773</v>
+        <v>0.8923946532065553</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_N.xlsx
+++ b/gap_result_2_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0001658701565549897</v>
+        <v>-0.0004513183721052139</v>
       </c>
       <c r="D2">
-        <v>0.9841478695771412</v>
+        <v>0.9561007724072521</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003293476869256861</v>
+        <v>-0.0003837539088316633</v>
       </c>
       <c r="D3">
-        <v>0.9893563770901038</v>
+        <v>0.9864744847310158</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001485312452776666</v>
+        <v>0.002389388355590733</v>
       </c>
       <c r="D4">
-        <v>0.9227580399073519</v>
+        <v>0.8724879114009996</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003474025726281464</v>
+        <v>-0.0002877013390280084</v>
       </c>
       <c r="D5">
-        <v>0.9814113648820749</v>
+        <v>0.9840539981221307</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.00168478525018243</v>
+        <v>0.006587850910896115</v>
       </c>
       <c r="D6">
-        <v>0.8923946532065553</v>
+        <v>0.5806456563770318</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_N.xlsx
+++ b/gap_result_2_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004513183721052139</v>
+        <v>-6.903932323930329E-05</v>
       </c>
       <c r="D2">
-        <v>0.9561007724072521</v>
+        <v>0.9934002363885324</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003837539088316633</v>
+        <v>-0.0003408162077951037</v>
       </c>
       <c r="D3">
-        <v>0.9864744847310158</v>
+        <v>0.9889835163895575</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002389388355590733</v>
+        <v>0.001551494666656383</v>
       </c>
       <c r="D4">
-        <v>0.8724879114009996</v>
+        <v>0.9193113886818179</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002877013390280084</v>
+        <v>-0.0002915696169488551</v>
       </c>
       <c r="D5">
-        <v>0.9840539981221307</v>
+        <v>0.9843952371685187</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006587850910896115</v>
+        <v>0.001692090757938141</v>
       </c>
       <c r="D6">
-        <v>0.5806456563770318</v>
+        <v>0.8919089551851628</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_N.xlsx
+++ b/gap_result_2_N.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
